--- a/Project_QEA_Hackathon/src/test/resources/ExcelData/Output.xlsx
+++ b/Project_QEA_Hackathon/src/test/resources/ExcelData/Output.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3172" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3252" uniqueCount="170">
   <si>
     <t>Holiday Homes</t>
   </si>
@@ -914,9 +914,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="45.7578125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="72.07421875" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="14.3359375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.6796875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.34375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -932,35 +932,35 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>167</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>169</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">

--- a/Project_QEA_Hackathon/src/test/resources/ExcelData/Output.xlsx
+++ b/Project_QEA_Hackathon/src/test/resources/ExcelData/Output.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3252" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3452" uniqueCount="170">
   <si>
     <t>Holiday Homes</t>
   </si>
@@ -1018,9 +1018,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="45.7578125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="72.07421875" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="14.3359375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.6796875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.34375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1036,35 +1036,35 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">

--- a/Project_QEA_Hackathon/src/test/resources/ExcelData/Output.xlsx
+++ b/Project_QEA_Hackathon/src/test/resources/ExcelData/Output.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3452" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3556" uniqueCount="170">
   <si>
     <t>Holiday Homes</t>
   </si>
@@ -914,9 +914,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="72.07421875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="45.7578125" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="14.3359375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.34375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.6796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -932,35 +932,35 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6">
@@ -1018,9 +1018,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="72.07421875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="45.7578125" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="14.3359375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.34375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.6796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1036,35 +1036,35 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6">

--- a/Project_QEA_Hackathon/src/test/resources/ExcelData/Output.xlsx
+++ b/Project_QEA_Hackathon/src/test/resources/ExcelData/Output.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3556" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3644" uniqueCount="170">
   <si>
     <t>Holiday Homes</t>
   </si>
@@ -932,35 +932,35 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">

--- a/Project_QEA_Hackathon/src/test/resources/ExcelData/Output.xlsx
+++ b/Project_QEA_Hackathon/src/test/resources/ExcelData/Output.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3644" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3722" uniqueCount="170">
   <si>
     <t>Holiday Homes</t>
   </si>
@@ -1018,9 +1018,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="45.7578125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="72.07421875" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="14.3359375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.6796875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.34375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1036,35 +1036,35 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">

--- a/Project_QEA_Hackathon/src/test/resources/ExcelData/Output.xlsx
+++ b/Project_QEA_Hackathon/src/test/resources/ExcelData/Output.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3722" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4052" uniqueCount="195">
   <si>
     <t>Holiday Homes</t>
   </si>
@@ -527,6 +527,81 @@
   </si>
   <si>
     <t>₹ 45,746 / 5 nights</t>
+  </si>
+  <si>
+    <t>Runda Exclusive Suites, Gigiri, Nairobi</t>
+  </si>
+  <si>
+    <t>Pumzika Place I - Love House 2br near JKIA 4th Flr</t>
+  </si>
+  <si>
+    <t>Spacious two bedroom apartment in Valley arcade, Lavington</t>
+  </si>
+  <si>
+    <t>₹ 4,169</t>
+  </si>
+  <si>
+    <t>₹ 20,845 / 5 nights</t>
+  </si>
+  <si>
+    <t>₹ 8,318</t>
+  </si>
+  <si>
+    <t>₹ 41,594 / 5 nights</t>
+  </si>
+  <si>
+    <t>₹ 29,947 / 5 nights</t>
+  </si>
+  <si>
+    <t>₹ 9,150</t>
+  </si>
+  <si>
+    <t>₹ 45,753 / 5 nights</t>
+  </si>
+  <si>
+    <t>₹ 12,227 / 5 nights</t>
+  </si>
+  <si>
+    <t>₹ 12,478</t>
+  </si>
+  <si>
+    <t>₹ 62,391 / 5 nights</t>
+  </si>
+  <si>
+    <t>₹ 41,594</t>
+  </si>
+  <si>
+    <t>₹ 2,07,970 / 5 nights</t>
+  </si>
+  <si>
+    <t>₹ 8,336</t>
+  </si>
+  <si>
+    <t>₹ 41,684 / 5 nights</t>
+  </si>
+  <si>
+    <t>₹ 3,918</t>
+  </si>
+  <si>
+    <t>₹ 19,593 / 5 nights</t>
+  </si>
+  <si>
+    <t>₹ 2,850</t>
+  </si>
+  <si>
+    <t>₹ 14,252 / 5 nights</t>
+  </si>
+  <si>
+    <t>₹ 6,002</t>
+  </si>
+  <si>
+    <t>₹ 30,013 / 5 nights</t>
+  </si>
+  <si>
+    <t>₹ 9,170</t>
+  </si>
+  <si>
+    <t>₹ 45,853 / 5 nights</t>
   </si>
 </sst>
 </file>
@@ -932,35 +1007,35 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>185</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>191</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>193</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1095,7 @@
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="72.07421875" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="14.3359375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.34375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.6796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1039,10 +1114,10 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>185</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3">
@@ -1050,10 +1125,10 @@
         <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>191</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4">
@@ -1061,10 +1136,10 @@
         <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>193</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6">
